--- a/outputs_prep_v2/checkpoint_summary_v2.xlsx
+++ b/outputs_prep_v2/checkpoint_summary_v2.xlsx
@@ -441,7 +441,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>172</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8">

--- a/outputs_prep_v2/checkpoint_summary_v2.xlsx
+++ b/outputs_prep_v2/checkpoint_summary_v2.xlsx
@@ -441,7 +441,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
